--- a/doc/testlist.xlsx
+++ b/doc/testlist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="集計" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="120">
+  <si>
+    <t xml:space="preserve">判定結果</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">実施回</t>
+  </si>
+  <si>
+    <t xml:space="preserve">試験観点</t>
+  </si>
+  <si>
+    <t xml:space="preserve">試験項目数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">未記入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不具合分析</t>
+  </si>
+  <si>
+    <t xml:space="preserve">備考</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シナリオ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・手持ちのコマ数が0の場合にゲーム終了判定をする処理が抜けている
+・設定ファイルの不備を検出しても、その旨をユーザに通知する機能が欠けている</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダイアログ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なし</t>
+  </si>
   <si>
     <t xml:space="preserve">大項目</t>
   </si>
@@ -78,9 +121,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
     <t xml:space="preserve">期待値</t>
   </si>
   <si>
@@ -127,9 +167,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">備考</t>
-  </si>
-  <si>
     <t xml:space="preserve">通常プレイシナリオ</t>
   </si>
   <si>
@@ -1245,6 +1282,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">ダイアログなし</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b val="true"/>
@@ -1484,27 +1524,6 @@
     <t xml:space="preserve">配置先</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">回目</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">将棋盤</t>
   </si>
   <si>
@@ -1544,6 +1563,9 @@
     <t xml:space="preserve">領地外配置不可</t>
   </si>
   <si>
+    <t xml:space="preserve">大内</t>
+  </si>
+  <si>
     <t xml:space="preserve">正常</t>
   </si>
   <si>
@@ -1574,10 +1596,10 @@
     <t xml:space="preserve">P2領地</t>
   </si>
   <si>
-    <t xml:space="preserve">領地の上</t>
-  </si>
-  <si>
-    <t xml:space="preserve">領地の上不可</t>
+    <t xml:space="preserve">領土の上</t>
+  </si>
+  <si>
+    <t xml:space="preserve">領土の上不可</t>
   </si>
   <si>
     <t xml:space="preserve">P1領地</t>
@@ -1587,10 +1609,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="M\月D\日"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="TakaoPGothic"/>
@@ -1631,12 +1655,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1696,12 +1714,12 @@
       <left/>
       <right/>
       <top style="hair"/>
-      <bottom style="hair"/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
+      <left style="hair"/>
+      <right style="hair"/>
       <top style="hair"/>
       <bottom/>
       <diagonal/>
@@ -1722,13 +1740,6 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right/>
-      <top/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
       <right style="hair"/>
       <top/>
       <bottom/>
@@ -1743,8 +1754,22 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
       <right style="hair"/>
       <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
       <bottom style="hair"/>
       <diagonal/>
     </border>
@@ -1760,13 +1785,6 @@
       <right style="hair"/>
       <top/>
       <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1795,271 +1813,343 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="99">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2068,38 +2158,42 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2108,11 +2202,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2131,10 +2225,11 @@
         <name val="TakaoPGothic"/>
         <charset val="1"/>
         <family val="2"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFBCE4E5"/>
+          <bgColor rgb="FFDDDDDD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2143,11 +2238,10 @@
         <name val="TakaoPGothic"/>
         <charset val="1"/>
         <family val="2"/>
-        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
+          <bgColor rgb="FFBCE4E5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2220,17 +2314,207 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="B2:J8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="10.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="6.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="57.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="34.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="10.17"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" s="16" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="17" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="19" t="n">
+        <f aca="false">COUNTA(シナリオ!$F$6:$F$1000)</f>
+        <v>41</v>
+      </c>
+      <c r="F4" s="20" t="n">
+        <f aca="false">COUNTIF(シナリオ!$I:$I, "=OK")</f>
+        <v>31</v>
+      </c>
+      <c r="G4" s="19" t="n">
+        <f aca="false">COUNTIF(シナリオ!$I:$I, "=NG")</f>
+        <v>10</v>
+      </c>
+      <c r="H4" s="21" t="n">
+        <f aca="false">E4-(F4+G4)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="23"/>
+    </row>
+    <row r="5" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="17" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="18" t="n">
+        <f aca="false">COUNTA(ダイアログ!$B$4:$B$1000)</f>
+        <v>18</v>
+      </c>
+      <c r="F5" s="20" t="n">
+        <f aca="false">COUNTIF(ダイアログ!$L:$L, "=OK")</f>
+        <v>18</v>
+      </c>
+      <c r="G5" s="19" t="n">
+        <f aca="false">COUNTIF(ダイアログ!$L:$L, "=NG")</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="21" t="n">
+        <f aca="false">E5-(F5+G5)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="23"/>
+    </row>
+    <row r="6" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="17" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="19" t="n">
+        <f aca="false">COUNTA(シナリオ!$F$6:$F$1000)</f>
+        <v>41</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="23"/>
+    </row>
+    <row r="7" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="17" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>4</v>
+      </c>
+      <c r="C7" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="19" t="n">
+        <f aca="false">COUNTA(ダイアログ!$B$4:$B$1000)</f>
+        <v>18</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23"/>
+    </row>
+    <row r="8" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F2:H2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I8:J8 B6:D7 I6:J7 B4:F5 H4:J5 B8:H8 F6:H7">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E7">
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2248,7 +2532,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2274,61 +2558,62 @@
   </sheetPr>
   <dimension ref="B2:U76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="5" topLeftCell="G47" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
+      <selection pane="bottomRight" activeCell="I47" activeCellId="0" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="31" width="3.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="2.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="38.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="32.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="34.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="9" style="2" width="6.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="9" style="1" width="7.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="15" style="1" width="6.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="18.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="22" style="0" width="10.17"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="7"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+    <row r="2" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="33"/>
+      <c r="C2" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="8"/>
+    </row>
+    <row r="3" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="9"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
@@ -2341,2817 +2626,2983 @@
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
-      <c r="U3" s="12"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="12"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="15" t="s">
+      <c r="U3" s="15"/>
+    </row>
+    <row r="4" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="9"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="36"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="15"/>
+    </row>
+    <row r="5" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="T5" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="P5" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="R5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="S5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="T5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="U5" s="16" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="17" t="n">
+      <c r="B6" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>1</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q6" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="R6" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="S6" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="T6" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="U6" s="24" t="s">
-        <v>17</v>
+      <c r="C6" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="U6" s="48" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="17" t="n">
+      <c r="B7" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>2</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="O7" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="P7" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q7" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="R7" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="S7" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="T7" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="U7" s="32" t="s">
-        <v>17</v>
+      <c r="C7" s="43"/>
+      <c r="D7" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="U7" s="56" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="17" t="n">
+      <c r="B8" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>3</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="39"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="59"/>
+      <c r="I8" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="64"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="17" t="n">
+      <c r="B9" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>4</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="N9" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="O9" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="P9" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q9" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="R9" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="S9" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="T9" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="U9" s="32" t="s">
-        <v>17</v>
+      <c r="C9" s="43"/>
+      <c r="D9" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="R9" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="S9" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="T9" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="U9" s="56" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="17" t="n">
+      <c r="B10" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>5</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="O10" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="P10" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q10" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="R10" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="S10" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="T10" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="U10" s="32" t="s">
-        <v>17</v>
+      <c r="C10" s="43"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="66"/>
+      <c r="G10" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="R10" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="S10" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="T10" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="U10" s="56" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="17" t="n">
+      <c r="B11" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>6</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="35"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="39"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="59"/>
+      <c r="I11" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="64"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="17" t="n">
+      <c r="B12" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>7</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="35"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="39"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="59"/>
+      <c r="I12" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="64"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="17" t="n">
+      <c r="B13" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>8</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="36"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="39"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="64"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="17" t="n">
+      <c r="B14" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>9</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="39"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="59"/>
+      <c r="I14" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="64"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="17" t="n">
+      <c r="B15" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>10</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="35"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="39"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="59"/>
+      <c r="I15" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="61"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="62"/>
+      <c r="U15" s="64"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="17" t="n">
+      <c r="B16" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>11</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="M16" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="N16" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="O16" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="P16" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q16" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="R16" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="S16" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="T16" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="U16" s="32" t="s">
-        <v>17</v>
+      <c r="C16" s="43"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="66"/>
+      <c r="G16" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="R16" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="S16" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="T16" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="U16" s="56" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="17" t="n">
+      <c r="B17" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>12</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="39"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="52"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="61"/>
+      <c r="K17" s="68" t="n">
+        <v>0.840972222222222</v>
+      </c>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="64"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="17" t="n">
+      <c r="B18" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>13</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="39"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="61"/>
+      <c r="K18" s="68" t="n">
+        <v>0.840972222222222</v>
+      </c>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="61"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="64"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="17" t="n">
+      <c r="B19" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>14</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="39"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="61"/>
+      <c r="K19" s="68" t="n">
+        <v>0.840972222222222</v>
+      </c>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="62"/>
+      <c r="U19" s="64"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="17" t="n">
+      <c r="B20" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>15</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="36"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="39"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="61"/>
+      <c r="K20" s="68" t="n">
+        <v>0.841666666666667</v>
+      </c>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="64"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="17" t="n">
+      <c r="B21" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>16</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="39"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="61"/>
+      <c r="K21" s="68" t="n">
+        <v>0.841666666666667</v>
+      </c>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="62"/>
+      <c r="U21" s="64"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="17" t="n">
+      <c r="B22" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>17</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="39"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="61"/>
+      <c r="K22" s="68" t="n">
+        <v>0.841666666666667</v>
+      </c>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="64"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="17" t="n">
+      <c r="B23" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>18</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="41"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="L23" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="M23" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="N23" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="O23" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="P23" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q23" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="R23" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="S23" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="T23" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="U23" s="32" t="s">
-        <v>17</v>
+      <c r="C23" s="43"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="66"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="M23" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="N23" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="P23" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q23" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="R23" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="S23" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="T23" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="U23" s="56" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="17" t="n">
+      <c r="B24" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>19</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="39"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="61"/>
+      <c r="K24" s="68" t="n">
+        <v>0.842361111111111</v>
+      </c>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="61"/>
+      <c r="R24" s="61"/>
+      <c r="S24" s="61"/>
+      <c r="T24" s="62"/>
+      <c r="U24" s="64"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="17" t="n">
+      <c r="B25" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>20</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="39"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" s="61"/>
+      <c r="K25" s="68" t="n">
+        <v>0.842361111111111</v>
+      </c>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="61"/>
+      <c r="T25" s="62"/>
+      <c r="U25" s="64"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="17" t="n">
+      <c r="B26" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>21</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" s="41"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K26" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="L26" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="M26" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="N26" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="O26" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="P26" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q26" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="R26" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="S26" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="T26" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="U26" s="32" t="s">
-        <v>17</v>
+      <c r="C26" s="43"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="66"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="M26" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="N26" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="O26" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q26" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="R26" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="S26" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="T26" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="U26" s="56" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="17" t="n">
+      <c r="B27" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>22</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="I27" s="36"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="39"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="61"/>
+      <c r="K27" s="68" t="n">
+        <v>0.842361111111111</v>
+      </c>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="61"/>
+      <c r="R27" s="61"/>
+      <c r="S27" s="61"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="64"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="17" t="n">
+      <c r="B28" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>23</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="41"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K28" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="L28" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="M28" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="N28" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="O28" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="P28" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q28" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="R28" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="S28" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="T28" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="U28" s="32" t="s">
-        <v>17</v>
+      <c r="C28" s="43"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="66"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="K28" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="L28" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="M28" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="N28" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="O28" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="P28" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q28" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="R28" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="S28" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="T28" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="U28" s="56" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="17" t="n">
+      <c r="B29" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>24</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="39"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="61"/>
+      <c r="K29" s="68" t="n">
+        <v>0.844444444444444</v>
+      </c>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="62"/>
+      <c r="U29" s="64"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="17" t="n">
+      <c r="B30" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>25</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="39"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30" s="61"/>
+      <c r="K30" s="68" t="n">
+        <v>0.844444444444444</v>
+      </c>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="61"/>
+      <c r="R30" s="61"/>
+      <c r="S30" s="61"/>
+      <c r="T30" s="62"/>
+      <c r="U30" s="64"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="17" t="n">
+      <c r="B31" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>26</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="38"/>
-      <c r="U31" s="39"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31" s="61"/>
+      <c r="K31" s="68" t="n">
+        <v>0.845138888888889</v>
+      </c>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="61"/>
+      <c r="R31" s="61"/>
+      <c r="S31" s="61"/>
+      <c r="T31" s="62"/>
+      <c r="U31" s="64"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="17" t="n">
+      <c r="B32" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>27</v>
       </c>
-      <c r="C32" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K32" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L32" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="M32" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="N32" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="O32" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="P32" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q32" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="R32" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="S32" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="T32" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="U32" s="24" t="s">
-        <v>17</v>
+      <c r="C32" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="L32" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="M32" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="N32" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="O32" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="P32" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q32" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="R32" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="S32" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="T32" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="U32" s="48" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="17" t="n">
+      <c r="B33" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>28</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="38"/>
-      <c r="U33" s="39"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="61"/>
+      <c r="R33" s="61"/>
+      <c r="S33" s="61"/>
+      <c r="T33" s="62"/>
+      <c r="U33" s="64"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="17" t="n">
+      <c r="B34" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>29</v>
       </c>
-      <c r="C34" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K34" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L34" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="M34" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="N34" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="O34" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="P34" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q34" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="R34" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="S34" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="T34" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="U34" s="24" t="s">
-        <v>17</v>
+      <c r="C34" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="K34" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="L34" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="M34" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="N34" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="O34" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="P34" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q34" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="R34" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="S34" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="T34" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="U34" s="48" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="17" t="n">
+      <c r="B35" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>30</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="H35" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K35" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="L35" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="M35" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="N35" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="O35" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="P35" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q35" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="R35" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="S35" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="T35" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="U35" s="32" t="s">
-        <v>17</v>
+      <c r="C35" s="43"/>
+      <c r="D35" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="H35" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="K35" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="L35" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="M35" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="N35" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="O35" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="P35" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q35" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="R35" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="S35" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="T35" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="U35" s="56" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="17" t="n">
+      <c r="B36" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>31</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="36"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="38"/>
-      <c r="U36" s="39"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="J36" s="61"/>
+      <c r="K36" s="68" t="n">
+        <v>0.845833333333333</v>
+      </c>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="62"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="61"/>
+      <c r="R36" s="61"/>
+      <c r="S36" s="61"/>
+      <c r="T36" s="62"/>
+      <c r="U36" s="64"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="17" t="n">
+      <c r="B37" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>32</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K37" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="L37" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="M37" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="N37" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="O37" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="P37" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q37" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="R37" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="S37" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="T37" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="U37" s="32" t="s">
-        <v>17</v>
+      <c r="C37" s="43"/>
+      <c r="D37" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="K37" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="L37" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="M37" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="N37" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="O37" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="P37" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q37" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="R37" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="S37" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="T37" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="U37" s="56" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="17" t="n">
+      <c r="B38" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>33</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" s="41"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I38" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="J38" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K38" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="L38" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="M38" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="N38" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="O38" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="P38" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q38" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="R38" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="S38" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="T38" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="U38" s="32" t="s">
-        <v>17</v>
+      <c r="C38" s="43"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" s="66"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="K38" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="L38" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="M38" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="N38" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="O38" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="P38" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q38" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="R38" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="S38" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="T38" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="U38" s="56" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="17" t="n">
+      <c r="B39" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>34</v>
       </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="G39" s="35"/>
-      <c r="H39" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="I39" s="36"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="38"/>
-      <c r="O39" s="36"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="37"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="38"/>
-      <c r="U39" s="39"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" s="59"/>
+      <c r="H39" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="I39" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="J39" s="61"/>
+      <c r="K39" s="68" t="n">
+        <v>0.845833333333333</v>
+      </c>
+      <c r="L39" s="61"/>
+      <c r="M39" s="61"/>
+      <c r="N39" s="62"/>
+      <c r="O39" s="63"/>
+      <c r="P39" s="61"/>
+      <c r="Q39" s="61"/>
+      <c r="R39" s="61"/>
+      <c r="S39" s="61"/>
+      <c r="T39" s="62"/>
+      <c r="U39" s="64"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="17" t="n">
+      <c r="B40" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>35</v>
       </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="F40" s="41"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="36"/>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="37"/>
-      <c r="T40" s="38"/>
-      <c r="U40" s="39"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" s="66"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="61"/>
+      <c r="M40" s="61"/>
+      <c r="N40" s="62"/>
+      <c r="O40" s="63"/>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="61"/>
+      <c r="R40" s="61"/>
+      <c r="S40" s="61"/>
+      <c r="T40" s="62"/>
+      <c r="U40" s="64"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="17" t="n">
+      <c r="B41" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>36</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="G41" s="35"/>
-      <c r="H41" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="I41" s="36"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="36"/>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="37"/>
-      <c r="S41" s="37"/>
-      <c r="T41" s="38"/>
-      <c r="U41" s="39"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="G41" s="59"/>
+      <c r="H41" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="I41" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="61"/>
+      <c r="K41" s="68" t="n">
+        <v>0.845833333333333</v>
+      </c>
+      <c r="L41" s="61"/>
+      <c r="M41" s="61"/>
+      <c r="N41" s="62"/>
+      <c r="O41" s="63"/>
+      <c r="P41" s="61"/>
+      <c r="Q41" s="61"/>
+      <c r="R41" s="61"/>
+      <c r="S41" s="61"/>
+      <c r="T41" s="62"/>
+      <c r="U41" s="64"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="17" t="n">
+      <c r="B42" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>37</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="F42" s="41"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I42" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="J42" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K42" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="L42" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="M42" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="N42" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="O42" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="P42" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q42" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="R42" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="S42" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="T42" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="U42" s="32" t="s">
-        <v>17</v>
+      <c r="C42" s="43"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" s="66"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="K42" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="L42" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="M42" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="N42" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="O42" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="P42" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q42" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="R42" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="S42" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="T42" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="U42" s="56" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="17" t="n">
+      <c r="B43" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>38</v>
       </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="38"/>
-      <c r="O43" s="36"/>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="37"/>
-      <c r="S43" s="37"/>
-      <c r="T43" s="38"/>
-      <c r="U43" s="39"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="61"/>
+      <c r="K43" s="68" t="n">
+        <v>0.847222222222222</v>
+      </c>
+      <c r="L43" s="61"/>
+      <c r="M43" s="61"/>
+      <c r="N43" s="62"/>
+      <c r="O43" s="63"/>
+      <c r="P43" s="61"/>
+      <c r="Q43" s="61"/>
+      <c r="R43" s="61"/>
+      <c r="S43" s="61"/>
+      <c r="T43" s="62"/>
+      <c r="U43" s="64"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="17" t="n">
+      <c r="B44" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>39</v>
       </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="37"/>
-      <c r="N44" s="38"/>
-      <c r="O44" s="36"/>
-      <c r="P44" s="37"/>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="37"/>
-      <c r="S44" s="37"/>
-      <c r="T44" s="38"/>
-      <c r="U44" s="39"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="61"/>
+      <c r="K44" s="68" t="n">
+        <v>0.847222222222222</v>
+      </c>
+      <c r="L44" s="61"/>
+      <c r="M44" s="61"/>
+      <c r="N44" s="62"/>
+      <c r="O44" s="63"/>
+      <c r="P44" s="61"/>
+      <c r="Q44" s="61"/>
+      <c r="R44" s="61"/>
+      <c r="S44" s="61"/>
+      <c r="T44" s="62"/>
+      <c r="U44" s="64"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="17" t="n">
+      <c r="B45" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>40</v>
       </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="37"/>
-      <c r="M45" s="37"/>
-      <c r="N45" s="38"/>
-      <c r="O45" s="36"/>
-      <c r="P45" s="37"/>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="37"/>
-      <c r="S45" s="37"/>
-      <c r="T45" s="38"/>
-      <c r="U45" s="39"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="61"/>
+      <c r="K45" s="68" t="n">
+        <v>0.847222222222222</v>
+      </c>
+      <c r="L45" s="61"/>
+      <c r="M45" s="61"/>
+      <c r="N45" s="62"/>
+      <c r="O45" s="63"/>
+      <c r="P45" s="61"/>
+      <c r="Q45" s="61"/>
+      <c r="R45" s="61"/>
+      <c r="S45" s="61"/>
+      <c r="T45" s="62"/>
+      <c r="U45" s="64"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="17" t="n">
+      <c r="B46" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>41</v>
       </c>
-      <c r="C46" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="J46" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K46" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L46" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="M46" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="N46" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="O46" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="P46" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q46" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="R46" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="S46" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="T46" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="U46" s="24" t="s">
-        <v>17</v>
+      <c r="C46" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="H46" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="I46" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="K46" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="L46" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="M46" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="N46" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="O46" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="P46" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q46" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="R46" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="S46" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="T46" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="U46" s="48" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="17" t="n">
+      <c r="B47" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>42</v>
       </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="H47" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I47" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="J47" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K47" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="L47" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="M47" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="N47" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="O47" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="P47" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q47" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="R47" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="S47" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="T47" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="U47" s="32" t="s">
-        <v>17</v>
+      <c r="C47" s="43"/>
+      <c r="D47" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="H47" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="K47" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="L47" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="M47" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="N47" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="O47" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="P47" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q47" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="R47" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="S47" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="T47" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="U47" s="56" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="17" t="n">
+      <c r="B48" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>43</v>
       </c>
-      <c r="C48" s="19"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="37"/>
-      <c r="M48" s="37"/>
-      <c r="N48" s="38"/>
-      <c r="O48" s="36"/>
-      <c r="P48" s="37"/>
-      <c r="Q48" s="37"/>
-      <c r="R48" s="37"/>
-      <c r="S48" s="37"/>
-      <c r="T48" s="38"/>
-      <c r="U48" s="39"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="61"/>
+      <c r="K48" s="68" t="n">
+        <v>0.847916666666667</v>
+      </c>
+      <c r="L48" s="61"/>
+      <c r="M48" s="61"/>
+      <c r="N48" s="62"/>
+      <c r="O48" s="63"/>
+      <c r="P48" s="61"/>
+      <c r="Q48" s="61"/>
+      <c r="R48" s="61"/>
+      <c r="S48" s="61"/>
+      <c r="T48" s="62"/>
+      <c r="U48" s="64"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="17" t="n">
+      <c r="B49" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>44</v>
       </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I49" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="J49" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K49" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="L49" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="M49" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="N49" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="O49" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="P49" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q49" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="R49" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="S49" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="T49" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="U49" s="32" t="s">
-        <v>17</v>
+      <c r="C49" s="43"/>
+      <c r="D49" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="I49" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="K49" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="L49" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="M49" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="N49" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="O49" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="P49" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q49" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="R49" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="S49" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="T49" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="U49" s="56" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="17" t="n">
+      <c r="B50" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>45</v>
       </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="F50" s="41"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I50" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="J50" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K50" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="L50" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="M50" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="N50" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="O50" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="P50" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q50" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="R50" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="S50" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="T50" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="U50" s="32" t="s">
-        <v>17</v>
+      <c r="C50" s="43"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="F50" s="66"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="I50" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J50" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="K50" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="L50" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="M50" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="N50" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="O50" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="P50" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q50" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="R50" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="S50" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="T50" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="U50" s="56" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="17" t="n">
+      <c r="B51" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>46</v>
       </c>
-      <c r="C51" s="19"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="37"/>
-      <c r="L51" s="37"/>
-      <c r="M51" s="37"/>
-      <c r="N51" s="38"/>
-      <c r="O51" s="36"/>
-      <c r="P51" s="37"/>
-      <c r="Q51" s="37"/>
-      <c r="R51" s="37"/>
-      <c r="S51" s="37"/>
-      <c r="T51" s="38"/>
-      <c r="U51" s="39"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="J51" s="61"/>
+      <c r="K51" s="68" t="n">
+        <v>0.849305555555556</v>
+      </c>
+      <c r="L51" s="61"/>
+      <c r="M51" s="61"/>
+      <c r="N51" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="O51" s="63"/>
+      <c r="P51" s="61"/>
+      <c r="Q51" s="61"/>
+      <c r="R51" s="61"/>
+      <c r="S51" s="61"/>
+      <c r="T51" s="62"/>
+      <c r="U51" s="64"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="17" t="n">
+      <c r="B52" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>47</v>
       </c>
-      <c r="C52" s="19"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="37"/>
-      <c r="M52" s="37"/>
-      <c r="N52" s="38"/>
-      <c r="O52" s="36"/>
-      <c r="P52" s="37"/>
-      <c r="Q52" s="37"/>
-      <c r="R52" s="37"/>
-      <c r="S52" s="37"/>
-      <c r="T52" s="38"/>
-      <c r="U52" s="39"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="G52" s="59"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="J52" s="61"/>
+      <c r="K52" s="61"/>
+      <c r="L52" s="61"/>
+      <c r="M52" s="61"/>
+      <c r="N52" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="O52" s="63"/>
+      <c r="P52" s="61"/>
+      <c r="Q52" s="61"/>
+      <c r="R52" s="61"/>
+      <c r="S52" s="61"/>
+      <c r="T52" s="62"/>
+      <c r="U52" s="64"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="17" t="n">
+      <c r="B53" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>48</v>
       </c>
-      <c r="C53" s="19"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="37"/>
-      <c r="L53" s="37"/>
-      <c r="M53" s="37"/>
-      <c r="N53" s="38"/>
-      <c r="O53" s="36"/>
-      <c r="P53" s="37"/>
-      <c r="Q53" s="37"/>
-      <c r="R53" s="37"/>
-      <c r="S53" s="37"/>
-      <c r="T53" s="38"/>
-      <c r="U53" s="39"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="G53" s="59"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="J53" s="61"/>
+      <c r="K53" s="61"/>
+      <c r="L53" s="61"/>
+      <c r="M53" s="61"/>
+      <c r="N53" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="O53" s="63"/>
+      <c r="P53" s="61"/>
+      <c r="Q53" s="61"/>
+      <c r="R53" s="61"/>
+      <c r="S53" s="61"/>
+      <c r="T53" s="62"/>
+      <c r="U53" s="64"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="17" t="n">
+      <c r="B54" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>49</v>
       </c>
-      <c r="C54" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I54" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="J54" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K54" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L54" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="M54" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="N54" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="O54" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="P54" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q54" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="R54" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="S54" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="T54" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="U54" s="24" t="s">
-        <v>17</v>
+      <c r="C54" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="H54" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="I54" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="J54" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="K54" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="L54" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="M54" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="N54" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="O54" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="P54" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q54" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="R54" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="S54" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="T54" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="U54" s="48" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="17" t="n">
+      <c r="B55" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>50</v>
       </c>
-      <c r="C55" s="19"/>
-      <c r="D55" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="H55" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I55" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="J55" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K55" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="L55" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="M55" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="N55" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="O55" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="P55" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q55" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="R55" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="S55" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="T55" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="U55" s="32" t="s">
-        <v>17</v>
+      <c r="C55" s="43"/>
+      <c r="D55" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="H55" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="I55" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J55" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="K55" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="L55" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="M55" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="N55" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="O55" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="P55" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q55" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="R55" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="S55" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="T55" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="U55" s="56" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="17" t="n">
+      <c r="B56" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>51</v>
       </c>
-      <c r="C56" s="19"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
-      <c r="M56" s="37"/>
-      <c r="N56" s="38"/>
-      <c r="O56" s="36"/>
-      <c r="P56" s="37"/>
-      <c r="Q56" s="37"/>
-      <c r="R56" s="37"/>
-      <c r="S56" s="37"/>
-      <c r="T56" s="38"/>
-      <c r="U56" s="39"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="J56" s="61"/>
+      <c r="K56" s="68" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L56" s="61"/>
+      <c r="M56" s="61"/>
+      <c r="N56" s="62"/>
+      <c r="O56" s="63"/>
+      <c r="P56" s="61"/>
+      <c r="Q56" s="61"/>
+      <c r="R56" s="61"/>
+      <c r="S56" s="61"/>
+      <c r="T56" s="62"/>
+      <c r="U56" s="64"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="17" t="n">
+      <c r="B57" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>52</v>
       </c>
-      <c r="C57" s="19"/>
-      <c r="D57" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I57" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="J57" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K57" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="L57" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="M57" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="N57" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="O57" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="P57" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q57" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="R57" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="S57" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="T57" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="U57" s="32" t="s">
-        <v>17</v>
+      <c r="C57" s="43"/>
+      <c r="D57" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="I57" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J57" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="K57" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="L57" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="M57" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="N57" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="O57" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="P57" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q57" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="R57" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="S57" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="T57" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="U57" s="56" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="17" t="n">
+      <c r="B58" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>53</v>
       </c>
-      <c r="C58" s="19"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="F58" s="41"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I58" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="J58" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K58" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="L58" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="M58" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="N58" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="O58" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="P58" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q58" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="R58" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="S58" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="T58" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="U58" s="32" t="s">
-        <v>17</v>
+      <c r="C58" s="43"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="F58" s="66"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="I58" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J58" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="K58" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="L58" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="M58" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="N58" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="O58" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="P58" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q58" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="R58" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="S58" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="T58" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="U58" s="56" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="17" t="n">
+      <c r="B59" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>54</v>
       </c>
-      <c r="C59" s="19"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="G59" s="35"/>
-      <c r="H59" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="I59" s="36"/>
-      <c r="J59" s="37"/>
-      <c r="K59" s="37"/>
-      <c r="L59" s="37"/>
-      <c r="M59" s="37"/>
-      <c r="N59" s="38"/>
-      <c r="O59" s="36"/>
-      <c r="P59" s="37"/>
-      <c r="Q59" s="37"/>
-      <c r="R59" s="37"/>
-      <c r="S59" s="37"/>
-      <c r="T59" s="38"/>
-      <c r="U59" s="39"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="66"/>
+      <c r="F59" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="G59" s="59"/>
+      <c r="H59" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="I59" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="61"/>
+      <c r="K59" s="68" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L59" s="61"/>
+      <c r="M59" s="61"/>
+      <c r="N59" s="62"/>
+      <c r="O59" s="63"/>
+      <c r="P59" s="61"/>
+      <c r="Q59" s="61"/>
+      <c r="R59" s="61"/>
+      <c r="S59" s="61"/>
+      <c r="T59" s="62"/>
+      <c r="U59" s="64"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="17" t="n">
+      <c r="B60" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>55</v>
       </c>
-      <c r="C60" s="19"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="F60" s="41"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="37"/>
-      <c r="M60" s="37"/>
-      <c r="N60" s="38"/>
-      <c r="O60" s="36"/>
-      <c r="P60" s="37"/>
-      <c r="Q60" s="37"/>
-      <c r="R60" s="37"/>
-      <c r="S60" s="37"/>
-      <c r="T60" s="38"/>
-      <c r="U60" s="39"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="F60" s="66"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="60"/>
+      <c r="J60" s="61"/>
+      <c r="K60" s="68"/>
+      <c r="L60" s="61"/>
+      <c r="M60" s="61"/>
+      <c r="N60" s="62"/>
+      <c r="O60" s="63"/>
+      <c r="P60" s="61"/>
+      <c r="Q60" s="61"/>
+      <c r="R60" s="61"/>
+      <c r="S60" s="61"/>
+      <c r="T60" s="62"/>
+      <c r="U60" s="64"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="17" t="n">
+      <c r="B61" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>56</v>
       </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="G61" s="35"/>
-      <c r="H61" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="I61" s="36"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="37"/>
-      <c r="M61" s="37"/>
-      <c r="N61" s="38"/>
-      <c r="O61" s="36"/>
-      <c r="P61" s="37"/>
-      <c r="Q61" s="37"/>
-      <c r="R61" s="37"/>
-      <c r="S61" s="37"/>
-      <c r="T61" s="38"/>
-      <c r="U61" s="39"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="G61" s="59"/>
+      <c r="H61" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="I61" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="J61" s="61"/>
+      <c r="K61" s="68" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L61" s="61"/>
+      <c r="M61" s="61"/>
+      <c r="N61" s="62"/>
+      <c r="O61" s="63"/>
+      <c r="P61" s="61"/>
+      <c r="Q61" s="61"/>
+      <c r="R61" s="61"/>
+      <c r="S61" s="61"/>
+      <c r="T61" s="62"/>
+      <c r="U61" s="64"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="17" t="n">
+      <c r="B62" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>57</v>
       </c>
-      <c r="C62" s="19"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="F62" s="41"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I62" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="J62" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K62" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="L62" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="M62" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="N62" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="O62" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="P62" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q62" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="R62" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="S62" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="T62" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="U62" s="32" t="s">
-        <v>17</v>
+      <c r="C62" s="43"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="F62" s="66"/>
+      <c r="G62" s="59"/>
+      <c r="H62" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="I62" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J62" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="K62" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="L62" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="M62" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="N62" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="O62" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="P62" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q62" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="R62" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="S62" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="T62" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="U62" s="56" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="17" t="n">
+      <c r="B63" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>58</v>
       </c>
-      <c r="C63" s="19"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="37"/>
-      <c r="K63" s="37"/>
-      <c r="L63" s="37"/>
-      <c r="M63" s="37"/>
-      <c r="N63" s="38"/>
-      <c r="O63" s="36"/>
-      <c r="P63" s="37"/>
-      <c r="Q63" s="37"/>
-      <c r="R63" s="37"/>
-      <c r="S63" s="37"/>
-      <c r="T63" s="38"/>
-      <c r="U63" s="39"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="66"/>
+      <c r="F63" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="G63" s="59"/>
+      <c r="H63" s="59"/>
+      <c r="I63" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="J63" s="61"/>
+      <c r="K63" s="68" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L63" s="61"/>
+      <c r="M63" s="61"/>
+      <c r="N63" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="O63" s="63"/>
+      <c r="P63" s="61"/>
+      <c r="Q63" s="61"/>
+      <c r="R63" s="61"/>
+      <c r="S63" s="61"/>
+      <c r="T63" s="62"/>
+      <c r="U63" s="64"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="17" t="n">
+      <c r="B64" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>59</v>
       </c>
-      <c r="C64" s="19"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="41"/>
-      <c r="F64" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="37"/>
-      <c r="K64" s="37"/>
-      <c r="L64" s="37"/>
-      <c r="M64" s="37"/>
-      <c r="N64" s="38"/>
-      <c r="O64" s="36"/>
-      <c r="P64" s="37"/>
-      <c r="Q64" s="37"/>
-      <c r="R64" s="37"/>
-      <c r="S64" s="37"/>
-      <c r="T64" s="38"/>
-      <c r="U64" s="39"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="G64" s="59"/>
+      <c r="H64" s="59"/>
+      <c r="I64" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="J64" s="61"/>
+      <c r="K64" s="68" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L64" s="61"/>
+      <c r="M64" s="61"/>
+      <c r="N64" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="O64" s="63"/>
+      <c r="P64" s="61"/>
+      <c r="Q64" s="61"/>
+      <c r="R64" s="61"/>
+      <c r="S64" s="61"/>
+      <c r="T64" s="62"/>
+      <c r="U64" s="64"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="17" t="n">
+      <c r="B65" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>60</v>
       </c>
-      <c r="C65" s="19"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="36"/>
-      <c r="J65" s="37"/>
-      <c r="K65" s="37"/>
-      <c r="L65" s="37"/>
-      <c r="M65" s="37"/>
-      <c r="N65" s="38"/>
-      <c r="O65" s="36"/>
-      <c r="P65" s="37"/>
-      <c r="Q65" s="37"/>
-      <c r="R65" s="37"/>
-      <c r="S65" s="37"/>
-      <c r="T65" s="38"/>
-      <c r="U65" s="39"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="G65" s="59"/>
+      <c r="H65" s="59"/>
+      <c r="I65" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="J65" s="61"/>
+      <c r="K65" s="68" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L65" s="61"/>
+      <c r="M65" s="61"/>
+      <c r="N65" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="O65" s="63"/>
+      <c r="P65" s="61"/>
+      <c r="Q65" s="61"/>
+      <c r="R65" s="61"/>
+      <c r="S65" s="61"/>
+      <c r="T65" s="62"/>
+      <c r="U65" s="64"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="17" t="n">
+      <c r="B66" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>61</v>
       </c>
-      <c r="C66" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H66" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I66" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="J66" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K66" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L66" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="M66" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="N66" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="O66" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="P66" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q66" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="R66" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="S66" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="T66" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="U66" s="24" t="s">
-        <v>17</v>
+      <c r="C66" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="H66" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="I66" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="J66" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="K66" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="L66" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="M66" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="N66" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="O66" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="P66" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q66" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="R66" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="S66" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="T66" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="U66" s="48" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="17" t="n">
+      <c r="B67" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>62</v>
       </c>
-      <c r="C67" s="19"/>
-      <c r="D67" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="H67" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I67" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="J67" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K67" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="L67" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="M67" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="N67" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="O67" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="P67" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q67" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="R67" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="S67" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="T67" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="U67" s="32" t="s">
-        <v>17</v>
+      <c r="C67" s="43"/>
+      <c r="D67" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="E67" s="50"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="H67" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="I67" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J67" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="K67" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="L67" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="M67" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="N67" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="O67" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="P67" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q67" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="R67" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="S67" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="T67" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="U67" s="56" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="17" t="n">
+      <c r="B68" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>63</v>
       </c>
-      <c r="C68" s="19"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="37"/>
-      <c r="K68" s="37"/>
-      <c r="L68" s="37"/>
-      <c r="M68" s="37"/>
-      <c r="N68" s="38"/>
-      <c r="O68" s="36"/>
-      <c r="P68" s="37"/>
-      <c r="Q68" s="37"/>
-      <c r="R68" s="37"/>
-      <c r="S68" s="37"/>
-      <c r="T68" s="38"/>
-      <c r="U68" s="39"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="57"/>
+      <c r="F68" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="G68" s="59"/>
+      <c r="H68" s="59"/>
+      <c r="I68" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="J68" s="61"/>
+      <c r="K68" s="68" t="n">
+        <v>0.853472222222222</v>
+      </c>
+      <c r="L68" s="61"/>
+      <c r="M68" s="61"/>
+      <c r="N68" s="62"/>
+      <c r="O68" s="63"/>
+      <c r="P68" s="61"/>
+      <c r="Q68" s="61"/>
+      <c r="R68" s="61"/>
+      <c r="S68" s="61"/>
+      <c r="T68" s="62"/>
+      <c r="U68" s="64"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="17" t="n">
+      <c r="B69" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>64</v>
       </c>
-      <c r="C69" s="19"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="36"/>
-      <c r="J69" s="37"/>
-      <c r="K69" s="37"/>
-      <c r="L69" s="37"/>
-      <c r="M69" s="37"/>
-      <c r="N69" s="38"/>
-      <c r="O69" s="36"/>
-      <c r="P69" s="37"/>
-      <c r="Q69" s="37"/>
-      <c r="R69" s="37"/>
-      <c r="S69" s="37"/>
-      <c r="T69" s="38"/>
-      <c r="U69" s="39"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="57"/>
+      <c r="F69" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="G69" s="59"/>
+      <c r="H69" s="59"/>
+      <c r="I69" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="J69" s="61"/>
+      <c r="K69" s="68" t="n">
+        <v>0.853472222222222</v>
+      </c>
+      <c r="L69" s="61"/>
+      <c r="M69" s="61"/>
+      <c r="N69" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="O69" s="63"/>
+      <c r="P69" s="61"/>
+      <c r="Q69" s="61"/>
+      <c r="R69" s="61"/>
+      <c r="S69" s="61"/>
+      <c r="T69" s="62"/>
+      <c r="U69" s="64"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="17" t="n">
+      <c r="B70" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>65</v>
       </c>
-      <c r="C70" s="19"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="36"/>
-      <c r="J70" s="37"/>
-      <c r="K70" s="37"/>
-      <c r="L70" s="37"/>
-      <c r="M70" s="37"/>
-      <c r="N70" s="38"/>
-      <c r="O70" s="36"/>
-      <c r="P70" s="37"/>
-      <c r="Q70" s="37"/>
-      <c r="R70" s="37"/>
-      <c r="S70" s="37"/>
-      <c r="T70" s="38"/>
-      <c r="U70" s="39"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="50"/>
+      <c r="E70" s="57"/>
+      <c r="F70" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="G70" s="59"/>
+      <c r="H70" s="59"/>
+      <c r="I70" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="J70" s="61"/>
+      <c r="K70" s="68" t="n">
+        <v>0.853472222222222</v>
+      </c>
+      <c r="L70" s="61"/>
+      <c r="M70" s="61"/>
+      <c r="N70" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="O70" s="63"/>
+      <c r="P70" s="61"/>
+      <c r="Q70" s="61"/>
+      <c r="R70" s="61"/>
+      <c r="S70" s="61"/>
+      <c r="T70" s="62"/>
+      <c r="U70" s="64"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="17" t="n">
+      <c r="B71" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>66</v>
       </c>
-      <c r="C71" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H71" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I71" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="J71" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K71" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L71" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="M71" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="N71" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="O71" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="P71" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q71" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="R71" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="S71" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="T71" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="U71" s="24" t="s">
-        <v>17</v>
+      <c r="C71" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="H71" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="I71" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="J71" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="K71" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="L71" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="M71" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="N71" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="O71" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="P71" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q71" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="R71" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="S71" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="T71" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="U71" s="48" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="17" t="n">
+      <c r="B72" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>67</v>
       </c>
-      <c r="C72" s="19"/>
-      <c r="D72" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="H72" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I72" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="J72" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K72" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="L72" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="M72" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="N72" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="O72" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="P72" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q72" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="R72" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="S72" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="T72" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="U72" s="32" t="s">
-        <v>17</v>
+      <c r="C72" s="43"/>
+      <c r="D72" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="E72" s="50"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="H72" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="I72" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J72" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="K72" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="L72" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="M72" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="N72" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="O72" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="P72" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q72" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="R72" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="S72" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="T72" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="U72" s="56" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="17" t="n">
+      <c r="B73" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>68</v>
       </c>
-      <c r="C73" s="19"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="33"/>
-      <c r="F73" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="G73" s="35"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="36"/>
-      <c r="J73" s="37"/>
-      <c r="K73" s="37"/>
-      <c r="L73" s="37"/>
-      <c r="M73" s="37"/>
-      <c r="N73" s="38"/>
-      <c r="O73" s="36"/>
-      <c r="P73" s="37"/>
-      <c r="Q73" s="37"/>
-      <c r="R73" s="37"/>
-      <c r="S73" s="37"/>
-      <c r="T73" s="38"/>
-      <c r="U73" s="39"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="57"/>
+      <c r="F73" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="G73" s="59"/>
+      <c r="H73" s="59"/>
+      <c r="I73" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="J73" s="61"/>
+      <c r="K73" s="68" t="n">
+        <v>0.853472222222222</v>
+      </c>
+      <c r="L73" s="61"/>
+      <c r="M73" s="61"/>
+      <c r="N73" s="62"/>
+      <c r="O73" s="63"/>
+      <c r="P73" s="61"/>
+      <c r="Q73" s="61"/>
+      <c r="R73" s="61"/>
+      <c r="S73" s="61"/>
+      <c r="T73" s="62"/>
+      <c r="U73" s="64"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="17" t="n">
+      <c r="B74" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>69</v>
       </c>
-      <c r="C74" s="19"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="G74" s="35"/>
-      <c r="H74" s="35"/>
-      <c r="I74" s="36"/>
-      <c r="J74" s="37"/>
-      <c r="K74" s="37"/>
-      <c r="L74" s="37"/>
-      <c r="M74" s="37"/>
-      <c r="N74" s="38"/>
-      <c r="O74" s="36"/>
-      <c r="P74" s="37"/>
-      <c r="Q74" s="37"/>
-      <c r="R74" s="37"/>
-      <c r="S74" s="37"/>
-      <c r="T74" s="38"/>
-      <c r="U74" s="39"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="50"/>
+      <c r="E74" s="57"/>
+      <c r="F74" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="G74" s="59"/>
+      <c r="H74" s="59"/>
+      <c r="I74" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="J74" s="61"/>
+      <c r="K74" s="68" t="n">
+        <v>0.853472222222222</v>
+      </c>
+      <c r="L74" s="61"/>
+      <c r="M74" s="61"/>
+      <c r="N74" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="O74" s="63"/>
+      <c r="P74" s="61"/>
+      <c r="Q74" s="61"/>
+      <c r="R74" s="61"/>
+      <c r="S74" s="61"/>
+      <c r="T74" s="62"/>
+      <c r="U74" s="64"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="17" t="n">
+      <c r="B75" s="41" t="n">
         <f aca="false">ROW()-5</f>
         <v>70</v>
       </c>
-      <c r="C75" s="19"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="33"/>
-      <c r="F75" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G75" s="35"/>
-      <c r="H75" s="35"/>
-      <c r="I75" s="36"/>
-      <c r="J75" s="37"/>
-      <c r="K75" s="37"/>
-      <c r="L75" s="37"/>
-      <c r="M75" s="37"/>
-      <c r="N75" s="38"/>
-      <c r="O75" s="36"/>
-      <c r="P75" s="37"/>
-      <c r="Q75" s="37"/>
-      <c r="R75" s="37"/>
-      <c r="S75" s="37"/>
-      <c r="T75" s="38"/>
-      <c r="U75" s="39"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="50"/>
+      <c r="E75" s="57"/>
+      <c r="F75" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="G75" s="59"/>
+      <c r="H75" s="59"/>
+      <c r="I75" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="J75" s="61"/>
+      <c r="K75" s="68" t="n">
+        <v>0.853472222222222</v>
+      </c>
+      <c r="L75" s="61"/>
+      <c r="M75" s="61"/>
+      <c r="N75" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="O75" s="63"/>
+      <c r="P75" s="61"/>
+      <c r="Q75" s="61"/>
+      <c r="R75" s="61"/>
+      <c r="S75" s="61"/>
+      <c r="T75" s="62"/>
+      <c r="U75" s="64"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="43"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="46"/>
-      <c r="F76" s="47"/>
-      <c r="G76" s="48"/>
-      <c r="H76" s="48"/>
-      <c r="I76" s="49"/>
-      <c r="J76" s="50"/>
-      <c r="K76" s="50"/>
-      <c r="L76" s="50"/>
-      <c r="M76" s="50"/>
-      <c r="N76" s="51"/>
-      <c r="O76" s="49"/>
-      <c r="P76" s="50"/>
-      <c r="Q76" s="50"/>
-      <c r="R76" s="50"/>
-      <c r="S76" s="50"/>
-      <c r="T76" s="51"/>
-      <c r="U76" s="52"/>
+      <c r="B76" s="71"/>
+      <c r="C76" s="72"/>
+      <c r="D76" s="73"/>
+      <c r="E76" s="74"/>
+      <c r="F76" s="75"/>
+      <c r="G76" s="76"/>
+      <c r="H76" s="76"/>
+      <c r="I76" s="77"/>
+      <c r="J76" s="78"/>
+      <c r="K76" s="78"/>
+      <c r="L76" s="78"/>
+      <c r="M76" s="78"/>
+      <c r="N76" s="79"/>
+      <c r="O76" s="77"/>
+      <c r="P76" s="78"/>
+      <c r="Q76" s="78"/>
+      <c r="R76" s="78"/>
+      <c r="S76" s="78"/>
+      <c r="T76" s="79"/>
+      <c r="U76" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5926,7 +6377,7 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39:N41">
+  <conditionalFormatting sqref="I39:N40 L41:N41">
     <cfRule type="expression" priority="155" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -6191,7 +6642,7 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U43:U45 G43:H45 I44:N45">
+  <conditionalFormatting sqref="U43:U45 G43:H45 L44:N45 I44:J45">
     <cfRule type="expression" priority="208" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -6531,7 +6982,7 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U51:U53 G51:H53 I52:N53">
+  <conditionalFormatting sqref="U51:U53 G51:H53 J52:M53">
     <cfRule type="expression" priority="276" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -6636,7 +7087,7 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63:N65">
+  <conditionalFormatting sqref="I63:J65 L63:N65">
     <cfRule type="expression" priority="297" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -6701,7 +7152,7 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I59:N61">
+  <conditionalFormatting sqref="L59:N60 I61:N61 I59:J60">
     <cfRule type="expression" priority="310" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -6966,7 +7417,7 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U63:U65 G63:H65 I64:N65">
+  <conditionalFormatting sqref="U63:U65 G63:H65 L64:M65 J64:J65">
     <cfRule type="expression" priority="363" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -6991,7 +7442,7 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63:N65">
+  <conditionalFormatting sqref="I63:J65 L63:N65">
     <cfRule type="expression" priority="368" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -7251,17 +7702,17 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I73:I76">
+  <conditionalFormatting sqref="I74:I76">
     <cfRule type="expression" priority="420" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J73:J76">
+  <conditionalFormatting sqref="J74:J76">
     <cfRule type="expression" priority="421" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K73:K76">
+  <conditionalFormatting sqref="K74:K76">
     <cfRule type="expression" priority="422" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -7276,7 +7727,7 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N73:N76">
+  <conditionalFormatting sqref="N76 N73">
     <cfRule type="expression" priority="425" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -7378,6 +7829,46 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="F74">
     <cfRule type="expression" priority="445" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41:K41">
+    <cfRule type="expression" priority="446" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K60">
+    <cfRule type="expression" priority="447" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K59">
+    <cfRule type="expression" priority="448" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K63:K65">
+    <cfRule type="expression" priority="449" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I73:I75">
+    <cfRule type="expression" priority="450" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J73:J75">
+    <cfRule type="expression" priority="451" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K73:K75">
+    <cfRule type="expression" priority="452" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N74:N75">
+    <cfRule type="expression" priority="453" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7398,12 +7889,12 @@
   </sheetPr>
   <dimension ref="B2:X26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F17" activeCellId="0" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7412,949 +7903,1035 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="5.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="8.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="10.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="21.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="24.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="12" style="2" width="7.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="24.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="12" style="1" width="7.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="41.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="25" style="0" width="10.17"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="53"/>
-      <c r="C2" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="58"/>
-    </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="H3" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="J3" s="63" t="s">
-        <v>88</v>
-      </c>
-      <c r="K3" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="60" t="s">
+    <row r="2" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3"/>
+      <c r="C2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="8"/>
+    </row>
+    <row r="3" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="W3" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="X3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="R3" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="S3" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="T3" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="U3" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="V3" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="W3" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="X3" s="65" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="66" t="n">
+      <c r="B4" s="84" t="n">
         <f aca="false">ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="67" t="s">
-        <v>89</v>
+      <c r="C4" s="85" t="s">
+        <v>101</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="68" t="n">
+      <c r="E4" s="86" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="66" t="n">
+      <c r="F4" s="84" t="n">
         <v>1</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H4" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="I4" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="J4" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="K4" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="72"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="68"/>
+      <c r="H4" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" s="89" t="s">
+        <v>105</v>
+      </c>
+      <c r="L4" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="N4" s="90" t="n">
+        <v>0.834722222222222</v>
+      </c>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="92"/>
+      <c r="W4" s="91"/>
+      <c r="X4" s="86"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="66" t="n">
+      <c r="B5" s="84" t="n">
         <f aca="false">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="C5" s="67" t="s">
-        <v>89</v>
+      <c r="C5" s="85" t="s">
+        <v>101</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="68" t="n">
+      <c r="E5" s="86" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="66" t="n">
+      <c r="F5" s="84" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="H5" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="I5" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="J5" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="K5" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="L5" s="72"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="72"/>
-      <c r="W5" s="73"/>
-      <c r="X5" s="68"/>
+      <c r="H5" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="J5" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="K5" s="89" t="s">
+        <v>105</v>
+      </c>
+      <c r="L5" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="92"/>
+      <c r="W5" s="91"/>
+      <c r="X5" s="86"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="66" t="n">
+      <c r="B6" s="84" t="n">
         <f aca="false">ROW()-3</f>
         <v>3</v>
       </c>
-      <c r="C6" s="67" t="s">
-        <v>89</v>
+      <c r="C6" s="85" t="s">
+        <v>101</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="68" t="n">
+      <c r="E6" s="86" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="66" t="n">
+      <c r="F6" s="84" t="n">
         <v>4</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H6" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="I6" s="70" t="s">
-        <v>94</v>
-      </c>
-      <c r="J6" s="71" t="s">
-        <v>95</v>
-      </c>
-      <c r="K6" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="72"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="72"/>
-      <c r="W6" s="73"/>
-      <c r="X6" s="68"/>
+      <c r="H6" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="J6" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="K6" s="89" t="s">
+        <v>105</v>
+      </c>
+      <c r="L6" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="91"/>
+      <c r="R6" s="92"/>
+      <c r="W6" s="91"/>
+      <c r="X6" s="86"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="66" t="n">
+      <c r="B7" s="84" t="n">
         <f aca="false">ROW()-3</f>
         <v>4</v>
       </c>
-      <c r="C7" s="67" t="s">
-        <v>89</v>
+      <c r="C7" s="85" t="s">
+        <v>101</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="68" t="n">
+      <c r="E7" s="86" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="66" t="n">
+      <c r="F7" s="84" t="n">
         <v>6</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H7" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="I7" s="70" t="s">
-        <v>94</v>
-      </c>
-      <c r="J7" s="71" t="s">
-        <v>95</v>
-      </c>
-      <c r="K7" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="72"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="72"/>
-      <c r="W7" s="73"/>
-      <c r="X7" s="68"/>
+      <c r="H7" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="J7" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="89" t="s">
+        <v>105</v>
+      </c>
+      <c r="L7" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="92"/>
+      <c r="W7" s="91"/>
+      <c r="X7" s="86"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="66" t="n">
+      <c r="B8" s="84" t="n">
         <f aca="false">ROW()-3</f>
         <v>5</v>
       </c>
-      <c r="C8" s="67" t="s">
-        <v>89</v>
+      <c r="C8" s="85" t="s">
+        <v>101</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E8" s="68" t="n">
+      <c r="E8" s="86" t="n">
         <v>1</v>
       </c>
-      <c r="F8" s="66" t="n">
+      <c r="F8" s="84" t="n">
         <v>9</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H8" s="69" t="s">
-        <v>96</v>
-      </c>
-      <c r="I8" s="70" t="s">
-        <v>94</v>
-      </c>
-      <c r="J8" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="K8" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="72"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="72"/>
-      <c r="W8" s="73"/>
-      <c r="X8" s="68"/>
+      <c r="H8" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="J8" s="89" t="s">
+        <v>110</v>
+      </c>
+      <c r="K8" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="92"/>
+      <c r="W8" s="91"/>
+      <c r="X8" s="86"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="66" t="n">
+      <c r="B9" s="84" t="n">
         <f aca="false">ROW()-3</f>
         <v>6</v>
       </c>
-      <c r="C9" s="67" t="s">
-        <v>89</v>
+      <c r="C9" s="85" t="s">
+        <v>101</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="68" t="n">
+      <c r="E9" s="86" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="66" t="n">
+      <c r="F9" s="84" t="n">
         <v>9</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="H9" s="69" t="s">
-        <v>96</v>
-      </c>
-      <c r="I9" s="70" t="s">
-        <v>94</v>
-      </c>
-      <c r="J9" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="K9" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="72"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="72"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="68"/>
+      <c r="H9" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" s="89" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="92"/>
+      <c r="W9" s="91"/>
+      <c r="X9" s="86"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="66" t="n">
+      <c r="B10" s="84" t="n">
         <f aca="false">ROW()-3</f>
         <v>7</v>
       </c>
-      <c r="C10" s="67" t="s">
-        <v>89</v>
+      <c r="C10" s="85" t="s">
+        <v>101</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E10" s="68" t="n">
+      <c r="E10" s="86" t="n">
         <v>2</v>
       </c>
-      <c r="F10" s="66" t="n">
+      <c r="F10" s="84" t="n">
         <v>1</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H10" s="69" t="s">
-        <v>96</v>
-      </c>
-      <c r="I10" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="J10" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="K10" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="72"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="72"/>
-      <c r="W10" s="73"/>
-      <c r="X10" s="68"/>
+      <c r="H10" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" s="89" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="92"/>
+      <c r="W10" s="91"/>
+      <c r="X10" s="86"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="66" t="n">
+      <c r="B11" s="84" t="n">
         <f aca="false">ROW()-3</f>
         <v>8</v>
       </c>
-      <c r="C11" s="67" t="s">
-        <v>89</v>
+      <c r="C11" s="85" t="s">
+        <v>101</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E11" s="68" t="n">
+      <c r="E11" s="86" t="n">
         <v>2</v>
       </c>
-      <c r="F11" s="66" t="n">
+      <c r="F11" s="84" t="n">
         <v>1</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="H11" s="69" t="s">
-        <v>96</v>
-      </c>
-      <c r="I11" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="J11" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="K11" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="72"/>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="72"/>
-      <c r="W11" s="73"/>
-      <c r="X11" s="68"/>
+      <c r="H11" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" s="89" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q11" s="91"/>
+      <c r="R11" s="92"/>
+      <c r="W11" s="91"/>
+      <c r="X11" s="86"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="66" t="n">
+      <c r="B12" s="84" t="n">
         <f aca="false">ROW()-3</f>
         <v>9</v>
       </c>
-      <c r="C12" s="67" t="s">
-        <v>89</v>
+      <c r="C12" s="85" t="s">
+        <v>101</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E12" s="68" t="n">
+      <c r="E12" s="86" t="n">
         <v>2</v>
       </c>
-      <c r="F12" s="66" t="n">
+      <c r="F12" s="84" t="n">
         <v>4</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H12" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="I12" s="70" t="s">
-        <v>94</v>
-      </c>
-      <c r="J12" s="71" t="s">
-        <v>95</v>
-      </c>
-      <c r="K12" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="72"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="72"/>
-      <c r="W12" s="73"/>
-      <c r="X12" s="68"/>
+      <c r="H12" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="I12" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="J12" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" s="89" t="s">
+        <v>105</v>
+      </c>
+      <c r="L12" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q12" s="91"/>
+      <c r="R12" s="92"/>
+      <c r="W12" s="91"/>
+      <c r="X12" s="86"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="66" t="n">
+      <c r="B13" s="84" t="n">
         <f aca="false">ROW()-3</f>
         <v>10</v>
       </c>
-      <c r="C13" s="67" t="s">
-        <v>89</v>
+      <c r="C13" s="85" t="s">
+        <v>101</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E13" s="68" t="n">
+      <c r="E13" s="86" t="n">
         <v>2</v>
       </c>
-      <c r="F13" s="66" t="n">
+      <c r="F13" s="84" t="n">
         <v>6</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H13" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="I13" s="70" t="s">
-        <v>94</v>
-      </c>
-      <c r="J13" s="71" t="s">
-        <v>95</v>
-      </c>
-      <c r="K13" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" s="72"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="72"/>
-      <c r="W13" s="73"/>
-      <c r="X13" s="68"/>
+      <c r="H13" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" s="89" t="s">
+        <v>105</v>
+      </c>
+      <c r="L13" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="92"/>
+      <c r="W13" s="91"/>
+      <c r="X13" s="86"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="66" t="n">
+      <c r="B14" s="84" t="n">
         <f aca="false">ROW()-3</f>
         <v>11</v>
       </c>
-      <c r="C14" s="67" t="s">
-        <v>89</v>
+      <c r="C14" s="85" t="s">
+        <v>101</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E14" s="68" t="n">
+      <c r="E14" s="86" t="n">
         <v>2</v>
       </c>
-      <c r="F14" s="66" t="n">
+      <c r="F14" s="84" t="n">
         <v>9</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H14" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="I14" s="70" t="s">
-        <v>94</v>
-      </c>
-      <c r="J14" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="K14" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="72"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="72"/>
-      <c r="W14" s="73"/>
-      <c r="X14" s="68"/>
+      <c r="H14" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="I14" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="J14" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="K14" s="89" t="s">
+        <v>105</v>
+      </c>
+      <c r="L14" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="92"/>
+      <c r="W14" s="91"/>
+      <c r="X14" s="86"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="66" t="n">
+      <c r="B15" s="84" t="n">
         <f aca="false">ROW()-3</f>
         <v>12</v>
       </c>
-      <c r="C15" s="67" t="s">
-        <v>89</v>
+      <c r="C15" s="85" t="s">
+        <v>101</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E15" s="68" t="n">
+      <c r="E15" s="86" t="n">
         <v>2</v>
       </c>
-      <c r="F15" s="66" t="n">
+      <c r="F15" s="84" t="n">
         <v>9</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="H15" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="I15" s="70" t="s">
-        <v>94</v>
-      </c>
-      <c r="J15" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="K15" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="L15" s="72"/>
-      <c r="Q15" s="73"/>
-      <c r="R15" s="72"/>
-      <c r="W15" s="73"/>
-      <c r="X15" s="68"/>
+      <c r="H15" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="I15" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="J15" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="K15" s="89" t="s">
+        <v>105</v>
+      </c>
+      <c r="L15" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q15" s="91"/>
+      <c r="R15" s="92"/>
+      <c r="W15" s="91"/>
+      <c r="X15" s="86"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="66" t="n">
+      <c r="B16" s="84" t="n">
         <f aca="false">ROW()-3</f>
         <v>13</v>
       </c>
-      <c r="C16" s="67" t="s">
-        <v>89</v>
+      <c r="C16" s="85" t="s">
+        <v>101</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E16" s="68" t="n">
+      <c r="E16" s="86" t="n">
         <v>1</v>
       </c>
-      <c r="F16" s="66" t="n">
+      <c r="F16" s="84" t="n">
         <v>9</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H16" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="I16" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="J16" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="K16" s="71"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="72"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="68"/>
+      <c r="H16" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="I16" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="J16" s="89" t="s">
+        <v>111</v>
+      </c>
+      <c r="K16" s="89" t="s">
+        <v>105</v>
+      </c>
+      <c r="L16" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="N16" s="88"/>
+      <c r="O16" s="88"/>
+      <c r="P16" s="88"/>
+      <c r="Q16" s="91"/>
+      <c r="R16" s="92"/>
+      <c r="W16" s="91"/>
+      <c r="X16" s="86"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="66" t="n">
+      <c r="B17" s="84" t="n">
         <f aca="false">ROW()-3</f>
         <v>14</v>
       </c>
-      <c r="C17" s="67" t="s">
-        <v>89</v>
+      <c r="C17" s="85" t="s">
+        <v>101</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E17" s="68" t="n">
+      <c r="E17" s="86" t="n">
         <v>1</v>
       </c>
-      <c r="F17" s="66" t="n">
+      <c r="F17" s="84" t="n">
         <v>3</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H17" s="69" t="s">
-        <v>99</v>
-      </c>
-      <c r="I17" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="J17" s="71" t="s">
-        <v>100</v>
-      </c>
-      <c r="K17" s="71" t="s">
-        <v>101</v>
-      </c>
-      <c r="L17" s="72"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="72"/>
-      <c r="W17" s="73"/>
-      <c r="X17" s="68"/>
+      <c r="H17" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="I17" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="J17" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="K17" s="89" t="s">
+        <v>114</v>
+      </c>
+      <c r="L17" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="N17" s="88"/>
+      <c r="O17" s="88"/>
+      <c r="P17" s="88"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="92"/>
+      <c r="W17" s="91"/>
+      <c r="X17" s="86"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="66" t="n">
+      <c r="B18" s="84" t="n">
         <f aca="false">ROW()-3</f>
         <v>15</v>
       </c>
-      <c r="C18" s="67" t="s">
-        <v>89</v>
+      <c r="C18" s="85" t="s">
+        <v>101</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E18" s="68" t="n">
+      <c r="E18" s="86" t="n">
         <v>1</v>
       </c>
-      <c r="F18" s="66" t="n">
+      <c r="F18" s="84" t="n">
         <v>9</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H18" s="69" t="s">
-        <v>102</v>
-      </c>
-      <c r="I18" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="J18" s="71" t="s">
-        <v>100</v>
-      </c>
-      <c r="K18" s="71" t="s">
-        <v>101</v>
-      </c>
-      <c r="L18" s="72"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="73"/>
-      <c r="R18" s="72"/>
-      <c r="W18" s="73"/>
-      <c r="X18" s="68"/>
+      <c r="H18" s="87" t="s">
+        <v>115</v>
+      </c>
+      <c r="I18" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="J18" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="K18" s="89" t="s">
+        <v>114</v>
+      </c>
+      <c r="L18" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="N18" s="88"/>
+      <c r="O18" s="88"/>
+      <c r="P18" s="88"/>
+      <c r="Q18" s="91"/>
+      <c r="R18" s="92"/>
+      <c r="W18" s="91"/>
+      <c r="X18" s="86"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="66" t="n">
+      <c r="B19" s="84" t="n">
         <f aca="false">ROW()-3</f>
         <v>16</v>
       </c>
-      <c r="C19" s="67" t="s">
-        <v>89</v>
+      <c r="C19" s="85" t="s">
+        <v>101</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E19" s="68" t="n">
+      <c r="E19" s="86" t="n">
         <v>1</v>
       </c>
-      <c r="F19" s="66" t="n">
+      <c r="F19" s="84" t="n">
         <v>7</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H19" s="69" t="s">
+      <c r="H19" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="I19" s="88" t="s">
         <v>103</v>
       </c>
-      <c r="I19" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="J19" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="K19" s="71" t="s">
-        <v>105</v>
-      </c>
-      <c r="L19" s="72"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="73"/>
-      <c r="R19" s="72"/>
-      <c r="W19" s="73"/>
-      <c r="X19" s="68"/>
+      <c r="J19" s="89" t="s">
+        <v>117</v>
+      </c>
+      <c r="K19" s="89" t="s">
+        <v>118</v>
+      </c>
+      <c r="L19" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="M19" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="N19" s="88"/>
+      <c r="O19" s="88"/>
+      <c r="P19" s="88"/>
+      <c r="Q19" s="91"/>
+      <c r="R19" s="92"/>
+      <c r="W19" s="91"/>
+      <c r="X19" s="86"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="66" t="n">
+      <c r="B20" s="84" t="n">
         <f aca="false">ROW()-3</f>
         <v>17</v>
       </c>
-      <c r="C20" s="67" t="s">
-        <v>89</v>
+      <c r="C20" s="85" t="s">
+        <v>101</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E20" s="68" t="n">
+      <c r="E20" s="86" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="66" t="n">
+      <c r="F20" s="84" t="n">
         <v>7</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H20" s="69" t="s">
+      <c r="H20" s="87" t="s">
+        <v>119</v>
+      </c>
+      <c r="I20" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="J20" s="89" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="89" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="I20" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="J20" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="K20" s="71" t="s">
-        <v>105</v>
-      </c>
-      <c r="L20" s="72"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="72"/>
-      <c r="W20" s="73"/>
-      <c r="X20" s="68"/>
+      <c r="N20" s="88"/>
+      <c r="O20" s="88"/>
+      <c r="P20" s="88"/>
+      <c r="Q20" s="91"/>
+      <c r="R20" s="92"/>
+      <c r="W20" s="91"/>
+      <c r="X20" s="86"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="66" t="n">
+      <c r="B21" s="84" t="n">
         <f aca="false">ROW()-3</f>
         <v>18</v>
       </c>
-      <c r="C21" s="67" t="s">
-        <v>89</v>
+      <c r="C21" s="85" t="s">
+        <v>101</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E21" s="68" t="n">
+      <c r="E21" s="86" t="n">
         <v>1</v>
       </c>
-      <c r="F21" s="66" t="n">
+      <c r="F21" s="84" t="n">
         <v>1</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H21" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="I21" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="J21" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="K21" s="71"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="73"/>
-      <c r="R21" s="72"/>
-      <c r="W21" s="73"/>
-      <c r="X21" s="68"/>
+      <c r="H21" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="I21" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" s="89" t="s">
+        <v>111</v>
+      </c>
+      <c r="K21" s="89" t="s">
+        <v>105</v>
+      </c>
+      <c r="L21" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="N21" s="88"/>
+      <c r="O21" s="90" t="n">
+        <v>0.8375</v>
+      </c>
+      <c r="P21" s="88"/>
+      <c r="Q21" s="91"/>
+      <c r="R21" s="92"/>
+      <c r="W21" s="91"/>
+      <c r="X21" s="86"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="66"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="72"/>
-      <c r="W22" s="73"/>
-      <c r="X22" s="68"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="84"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="84"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="88"/>
+      <c r="O22" s="88"/>
+      <c r="P22" s="88"/>
+      <c r="Q22" s="91"/>
+      <c r="R22" s="92"/>
+      <c r="W22" s="91"/>
+      <c r="X22" s="86"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="66"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="70"/>
-      <c r="O23" s="70"/>
-      <c r="P23" s="70"/>
-      <c r="Q23" s="73"/>
-      <c r="R23" s="72"/>
-      <c r="W23" s="73"/>
-      <c r="X23" s="68"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="84"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="84"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="88"/>
+      <c r="O23" s="88"/>
+      <c r="P23" s="88"/>
+      <c r="Q23" s="91"/>
+      <c r="R23" s="92"/>
+      <c r="W23" s="91"/>
+      <c r="X23" s="86"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="66"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="70"/>
-      <c r="Q24" s="73"/>
-      <c r="R24" s="72"/>
-      <c r="W24" s="73"/>
-      <c r="X24" s="68"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="84"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="88"/>
+      <c r="P24" s="88"/>
+      <c r="Q24" s="91"/>
+      <c r="R24" s="92"/>
+      <c r="W24" s="91"/>
+      <c r="X24" s="86"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="66"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="70"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="73"/>
-      <c r="R25" s="72"/>
-      <c r="W25" s="73"/>
-      <c r="X25" s="68"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="84"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="84"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="88"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="91"/>
+      <c r="R25" s="92"/>
+      <c r="W25" s="91"/>
+      <c r="X25" s="86"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="74"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="78"/>
-      <c r="P26" s="78"/>
-      <c r="Q26" s="77"/>
-      <c r="R26" s="79"/>
-      <c r="S26" s="78"/>
-      <c r="T26" s="78"/>
-      <c r="U26" s="78"/>
-      <c r="V26" s="78"/>
-      <c r="W26" s="77"/>
-      <c r="X26" s="76"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="97"/>
+      <c r="O26" s="97"/>
+      <c r="P26" s="97"/>
+      <c r="Q26" s="96"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="97"/>
+      <c r="T26" s="97"/>
+      <c r="U26" s="97"/>
+      <c r="V26" s="97"/>
+      <c r="W26" s="96"/>
+      <c r="X26" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8363,7 +8940,7 @@
     <mergeCell ref="L2:Q2"/>
     <mergeCell ref="R2:W2"/>
   </mergeCells>
-  <conditionalFormatting sqref="X22:X26 B4:C4 B5:B7 C5:C9 B22:H26 X4:X6 E4:H7 X7 B11:C15 F12:H12 F11:G15 X11:X13 J5:Q9 B22:G26 X20 B20:G20">
+  <conditionalFormatting sqref="X22:X26 B4:C4 B5:B7 C5:C9 B22:H26 X4:X6 E4:H7 X7 B11:C15 F12:H12 F11:G15 X11:X13 N5:Q9 B22:G26 X20 B20:G20 J5:K9">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -8383,12 +8960,12 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22:Q26 I4:Q9 I20 L20:Q20">
+  <conditionalFormatting sqref="I22:Q26 I20 N20:Q20 I4:Q4 L10:L20 I5:L9 N5:Q9 M5:M21">
     <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:C10 B11:B13 C11:C15 E10:G10 X11:X13 F12:H12 E11:E15 F11:G13 H13:H15 J11:Q11 K12:Q13">
+  <conditionalFormatting sqref="B10:C10 B11:B13 C11:C15 E10:G10 X11:X13 F12:H12 E11:E15 F11:G13 H13:H15 N11:Q12 N13:Q13 J11:K11">
     <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -8403,7 +8980,7 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I15 K12:Q13">
+  <conditionalFormatting sqref="I10:I15 N12:Q13">
     <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -8418,12 +8995,12 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10:Q11">
+  <conditionalFormatting sqref="N10:Q11 J10:K11">
     <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10:Q11">
+  <conditionalFormatting sqref="N10:Q11 J10:K11">
     <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -8443,12 +9020,12 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J15:Q15">
+  <conditionalFormatting sqref="N15:Q15 J15:K15 K16">
     <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J14:Q15">
+  <conditionalFormatting sqref="N14:Q15 J14:K15 K16">
     <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -8513,7 +9090,7 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16:Q20">
+  <conditionalFormatting sqref="I16:J16 N16:Q20 I17:K20">
     <cfRule type="expression" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -8533,13 +9110,38 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:Q21">
+  <conditionalFormatting sqref="N21:Q21 I21:J21">
     <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R21:W21">
     <cfRule type="expression" priority="37" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="expression" priority="38" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12:K13">
+    <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21">
+    <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21">
+    <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L21">
+    <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
